--- a/Test Curves/Stingray.xlsx
+++ b/Test Curves/Stingray.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajac\OneDrive\Documents\GitHub\ENME802_2021S1_Project2\Test Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C598E00-B29A-4716-818E-5921B8C96F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AA9278-F20A-430E-84E7-5A6933226BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E6574C32-5A6D-4E01-B40E-982071C543BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6574C32-5A6D-4E01-B40E-982071C543BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Bx" sheetId="1" r:id="rId1"/>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F6226-49AC-47AC-A9D8-B14ED943F5EA}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2894,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720A2E34-6CDD-4C7B-A292-4466FF5BCB7B}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
